--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="版本3.1.3.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
+    <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="191">
   <si>
     <t>No</t>
   </si>
@@ -252,10 +253,6 @@
   </si>
   <si>
     <t>余星赞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -451,78 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>【BS后台】房间列表已出租/未出租功能恢复（文案修改出租状态）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS后台</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚海强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马丁组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马丁组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东App】隐藏房间提示：已隐藏的房间不在官网显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】编辑集中式房源默认不选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚海强田东兴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马丁组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>New Features</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -545,13 +470,376 @@
   <si>
     <t>合同整体算法调整</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置汇总</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置所属系统</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件名</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置的详细内容</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3.3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>sysconfig.SYNC_ROOM_THREADNUM=8
+sysconfig.ASYNC_ROOM_THREADNUM=8</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置同步房源的线程数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>雷传胜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传胜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3.3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinHistoryBillUrl=https://open.weixin.qq.com/connect/oauth2/authorize?appid=wx33a9c566e3a2b08d&amp;redirect_uri=http%3A%2F%2Fp.mogoroom.com%2Fmogoroom-partnerpc%2Fweixin%2Fhuobanbind%2FhistoryBill&amp;response_type=code&amp;scope=snsapi_userinfo&amp;state=STATE&amp;connect_redirect=1#wechat_redirect 
+sysconfig.weixin.weixinhuoBanAppID=wx49d2b14dbc7ab226
+sysconfig.weixin.weixinhuoBanAppSecret=1f2b2590eb2d74e93eb7fe34495b0777
+sysconfig.weixin.weixinhuobanBindUrl=https://open.weixin.qq.com/connect/oauth2/authorize?appid=wx49d2b14dbc7ab226&amp;redirect_uri=http%3A%2F%2Fp.mogoroom.com%2Fmogoroom-partnerpc%2Fweixin%2Fhuobanbind%2FauthCallBackBindPage&amp;response_type=code&amp;scope=snsapi_userinfo&amp;state=STATE&amp;connect_redirect=1#wechat_redirect
+sysconfig.weixin.weixinhuobanBindTempId=7UHo1OTCmVMrrvmuWNqqyCQG0i6YoFdewtCqZEugfIo
+sysconfig.weixin.weixinhuobanUnbindTempId=OxzYMw2E6BpatORkogVZx0b8R_3HMJvk75fJViURvH4
+sysconfig.weixin.weixinhuobanReportTempId=ysziVbOsLHsZZPXVoMb78Vyovxjcl2g51dN-_6TtnpA</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置微信扫码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3已经配置过，请注意下，排重</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wx49d2b14dbc7ab226
+sysconfig.weixin.weixinhuoBanAppSecret=1f2b2590eb2d74e93eb7fe34495b0777
+sysconfig.weixin.weixinhuobanReportTempId=ysziVbOsLHsZZPXVoMb78Vyovxjcl2g51dN-_6TtnpA</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置微信日报推送</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wx49d2b14dbc7ab226
+sysconfig.weixin.weixinhuoBanAppSecret=1f2b2590eb2d74e93eb7fe34495b0777
+sysconfig.weixin.weixinhuobanReserveTempId=BWjOkHYdmWMV7WTUTM1qJJRkv7nZxYj1b6RERI089Gc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置微信预约推送模板</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>请检查没有重复的配置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wxeb44d92649e73fe6
+sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d
+sysconfig.weixin.weixinhuobanReserveTempId=QLd1KXs2AU-8r-H4TJ9leYgmaIIeM3RimYzvSJsnNjg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置测试环境微信预约推送模板</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinHistoryBillUrl=https://open.weixin.qq.com/connect/oauth2/authorize?appid=wx33a9c566e3a2b08d&amp;redirect_uri=http%3A%2F%2Fppc.mogoroom.ngrok.cc%2Fmogoroom-partnerpc%2Fweixin%2Fhuobanbind%2FhistoryBill&amp;response_type=code&amp;scope=snsapi_userinfo&amp;state=STATE&amp;connect_redirect=1#wechat_redirect 
+sysconfig.weixin.weixinhuoBanAppID=wx33a9c566e3a2b08d
+sysconfig.weixin.weixinhuoBanAppSecret=d274ac99276d1e3338602356f7abeed8
+sysconfig.weixin.weixinhuobanBindUrl=https://open.weixin.qq.com/connect/oauth2/authorize?appid=wx33a9c566e3a2b08d&amp;redirect_uri=http%3A%2F%2Fppc.api.mogoroom.ngrok.cc%2Fmogoroom-partnerpc%2Fweixin%2Fhuobanbind%2FauthCallBackBindPage&amp;response_type=code&amp;scope=snsapi_userinfo&amp;state=STATE&amp;connect_redirect=1#wechat_redirect
+sysconfig.weixin.weixinhuobanBindTempId=AEOz02mC10CCxarG7OCCwJTwA42j6XfQ9S5vkvRKJjo
+sysconfig.weixin.weixinhuobanUnbindTempId=dkDx24GSmj0KcRaC0cyyxJHBODXJSpQyjZ3bjJCr8Bs
+sysconfig.weixin.weixinhuobanReportTempId=lPMRRKvvz2MEYaxzZHgL8HwIpJYv6qZVsXHceyPMmKM</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置微信扫码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc-pro.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>filter.jdbc.idleMaxAgeInMinutes=60
+filter.jdbc.connectionTimeoutInMs=60
+filter.jdbc.idleConnectionTestPeriodInMinutes=15
+filter.jdbc.maxConnectionAgeInSeconds=3600</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化数据库连接池</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈铖</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定，可能新增</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客PC&amp;App】修复租客注册时，统计租客注册来源渠道bug</t>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>租客PC，租客App</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>纪林强</t>
+  </si>
+  <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>【租客PC】福利社页面更换公司联系人和联系方式</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>租客PC</t>
+  </si>
+  <si>
+    <t>李健</t>
+  </si>
+  <si>
+    <t>【BS后台】房间列表已出租/未出租功能恢复（文案修改出租状态）</t>
+  </si>
+  <si>
+    <t>BS后台</t>
+  </si>
+  <si>
+    <t>姚海强</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>【房东App】已租隐藏房间提示：已租的房源不会对外展示</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t>【房东PC】编辑集中式房源默认不选</t>
+  </si>
+  <si>
+    <t>姚海强田东兴</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -648,8 +936,36 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,8 +990,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -752,6 +1074,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -770,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +1230,54 @@
     </xf>
     <xf numFmtId="14" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1222,7 +1634,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1339,7 +1751,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>58</v>
@@ -1391,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>59</v>
@@ -1443,7 +1855,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>58</v>
@@ -1495,7 +1907,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>55</v>
@@ -1547,7 +1959,7 @@
         <v>35</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>58</v>
@@ -1599,7 +2011,7 @@
         <v>34</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>55</v>
@@ -1651,7 +2063,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>55</v>
@@ -1703,7 +2115,7 @@
         <v>46</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>58</v>
@@ -1755,7 +2167,7 @@
         <v>46</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>58</v>
@@ -1807,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>58</v>
@@ -1859,7 +2271,7 @@
         <v>51</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>58</v>
@@ -1911,16 +2323,21 @@
         <v>52</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="14" t="str">
+        <f>M12:O12</f>
+        <v>Pass</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1932,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>42</v>
@@ -1959,7 +2376,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>60</v>
@@ -1984,13 +2401,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>28</v>
@@ -2006,22 +2423,22 @@
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="M15" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="N15" s="13">
         <v>42522</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -2034,46 +2451,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="31">
         <v>42521</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="31">
         <v>42521</v>
       </c>
       <c r="I16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="K16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="L16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="N16" s="13">
         <v>42522</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
@@ -2086,44 +2503,44 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="31">
         <v>42521</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="31">
         <v>42521</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="M17" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="N17" s="13">
         <v>42522</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
@@ -2136,36 +2553,36 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="F18" s="13">
         <v>42521</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="12"/>
       <c r="J18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="14" t="s">
@@ -2182,36 +2599,36 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="13">
         <v>42521</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="M19" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="14" t="s">
@@ -2227,184 +2644,258 @@
       <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>63</v>
+      <c r="B20" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>176</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="F20" s="13">
         <v>42521</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="H20" s="13">
         <v>42521</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="14" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="N20" s="13">
+        <v>42156</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>63</v>
+      <c r="B21" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>176</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="F21" s="13">
         <v>42521</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="H21" s="13">
         <v>42521</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="14" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="N21" s="13">
+        <v>42156</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>63</v>
+      <c r="B22" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>176</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="F22" s="13">
         <v>42521</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="H22" s="13">
         <v>42521</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="14" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="N22" s="13">
+        <v>42156</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="22" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="44">
+        <v>42522</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="44">
+        <v>42522</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" s="44">
+        <v>42522</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="21">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="44">
+        <v>42522</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="44">
+        <v>42522</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N24" s="44">
+        <v>42522</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -6307,4 +6798,1311 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="7" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="40" customWidth="1"/>
+    <col min="5" max="5" width="21" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="82.25" style="40" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="9" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="259" max="259" width="7" customWidth="1"/>
+    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="261" max="261" width="21" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.25" customWidth="1"/>
+    <col min="264" max="264" width="25.75" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="268" max="268" width="9" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="17.75" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="515" max="515" width="7" customWidth="1"/>
+    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="517" max="517" width="21" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.25" customWidth="1"/>
+    <col min="520" max="520" width="25.75" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="524" max="524" width="9" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="17.75" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="771" max="771" width="7" customWidth="1"/>
+    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="773" max="773" width="21" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.25" customWidth="1"/>
+    <col min="776" max="776" width="25.75" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="780" max="780" width="9" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="17.75" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="1027" max="1027" width="7" customWidth="1"/>
+    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1029" max="1029" width="21" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.25" customWidth="1"/>
+    <col min="1032" max="1032" width="25.75" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1036" max="1036" width="9" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="17.75" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1283" max="1283" width="7" customWidth="1"/>
+    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1285" max="1285" width="21" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.25" customWidth="1"/>
+    <col min="1288" max="1288" width="25.75" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1292" max="1292" width="9" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="17.75" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1539" max="1539" width="7" customWidth="1"/>
+    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1541" max="1541" width="21" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.25" customWidth="1"/>
+    <col min="1544" max="1544" width="25.75" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1548" max="1548" width="9" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="17.75" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1795" max="1795" width="7" customWidth="1"/>
+    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1797" max="1797" width="21" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.25" customWidth="1"/>
+    <col min="1800" max="1800" width="25.75" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1804" max="1804" width="9" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="17.75" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="2051" max="2051" width="7" customWidth="1"/>
+    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2053" max="2053" width="21" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.25" customWidth="1"/>
+    <col min="2056" max="2056" width="25.75" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2060" max="2060" width="9" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="17.75" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2307" max="2307" width="7" customWidth="1"/>
+    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2309" max="2309" width="21" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.25" customWidth="1"/>
+    <col min="2312" max="2312" width="25.75" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2316" max="2316" width="9" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="17.75" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2563" max="2563" width="7" customWidth="1"/>
+    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2565" max="2565" width="21" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.25" customWidth="1"/>
+    <col min="2568" max="2568" width="25.75" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2572" max="2572" width="9" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="17.75" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2819" max="2819" width="7" customWidth="1"/>
+    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2821" max="2821" width="21" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.25" customWidth="1"/>
+    <col min="2824" max="2824" width="25.75" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2828" max="2828" width="9" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="17.75" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="3075" max="3075" width="7" customWidth="1"/>
+    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3077" max="3077" width="21" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.25" customWidth="1"/>
+    <col min="3080" max="3080" width="25.75" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3084" max="3084" width="9" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="17.75" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3331" max="3331" width="7" customWidth="1"/>
+    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3333" max="3333" width="21" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.25" customWidth="1"/>
+    <col min="3336" max="3336" width="25.75" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3340" max="3340" width="9" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="17.75" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3587" max="3587" width="7" customWidth="1"/>
+    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3589" max="3589" width="21" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.25" customWidth="1"/>
+    <col min="3592" max="3592" width="25.75" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3596" max="3596" width="9" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="17.75" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3843" max="3843" width="7" customWidth="1"/>
+    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3845" max="3845" width="21" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.25" customWidth="1"/>
+    <col min="3848" max="3848" width="25.75" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3852" max="3852" width="9" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="17.75" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="4099" max="4099" width="7" customWidth="1"/>
+    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4101" max="4101" width="21" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.25" customWidth="1"/>
+    <col min="4104" max="4104" width="25.75" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4108" max="4108" width="9" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="17.75" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4355" max="4355" width="7" customWidth="1"/>
+    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4357" max="4357" width="21" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.25" customWidth="1"/>
+    <col min="4360" max="4360" width="25.75" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4364" max="4364" width="9" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="17.75" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4611" max="4611" width="7" customWidth="1"/>
+    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4613" max="4613" width="21" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.25" customWidth="1"/>
+    <col min="4616" max="4616" width="25.75" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4620" max="4620" width="9" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="17.75" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4867" max="4867" width="7" customWidth="1"/>
+    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4869" max="4869" width="21" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.25" customWidth="1"/>
+    <col min="4872" max="4872" width="25.75" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4876" max="4876" width="9" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="17.75" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="5123" max="5123" width="7" customWidth="1"/>
+    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5125" max="5125" width="21" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.25" customWidth="1"/>
+    <col min="5128" max="5128" width="25.75" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5132" max="5132" width="9" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="17.75" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5379" max="5379" width="7" customWidth="1"/>
+    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5381" max="5381" width="21" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.25" customWidth="1"/>
+    <col min="5384" max="5384" width="25.75" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5388" max="5388" width="9" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="17.75" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5635" max="5635" width="7" customWidth="1"/>
+    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5637" max="5637" width="21" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.25" customWidth="1"/>
+    <col min="5640" max="5640" width="25.75" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5644" max="5644" width="9" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="17.75" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5891" max="5891" width="7" customWidth="1"/>
+    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5893" max="5893" width="21" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.25" customWidth="1"/>
+    <col min="5896" max="5896" width="25.75" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5900" max="5900" width="9" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="17.75" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="6147" max="6147" width="7" customWidth="1"/>
+    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6149" max="6149" width="21" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.25" customWidth="1"/>
+    <col min="6152" max="6152" width="25.75" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6156" max="6156" width="9" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="17.75" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6403" max="6403" width="7" customWidth="1"/>
+    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6405" max="6405" width="21" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.25" customWidth="1"/>
+    <col min="6408" max="6408" width="25.75" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6412" max="6412" width="9" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="17.75" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6659" max="6659" width="7" customWidth="1"/>
+    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6661" max="6661" width="21" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.25" customWidth="1"/>
+    <col min="6664" max="6664" width="25.75" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6668" max="6668" width="9" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="17.75" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6915" max="6915" width="7" customWidth="1"/>
+    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6917" max="6917" width="21" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.25" customWidth="1"/>
+    <col min="6920" max="6920" width="25.75" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6924" max="6924" width="9" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="17.75" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="7171" max="7171" width="7" customWidth="1"/>
+    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7173" max="7173" width="21" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.25" customWidth="1"/>
+    <col min="7176" max="7176" width="25.75" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7180" max="7180" width="9" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="17.75" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7427" max="7427" width="7" customWidth="1"/>
+    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7429" max="7429" width="21" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.25" customWidth="1"/>
+    <col min="7432" max="7432" width="25.75" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7436" max="7436" width="9" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="17.75" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7683" max="7683" width="7" customWidth="1"/>
+    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7685" max="7685" width="21" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.25" customWidth="1"/>
+    <col min="7688" max="7688" width="25.75" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7692" max="7692" width="9" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="17.75" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7939" max="7939" width="7" customWidth="1"/>
+    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7941" max="7941" width="21" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.25" customWidth="1"/>
+    <col min="7944" max="7944" width="25.75" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7948" max="7948" width="9" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="17.75" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="8195" max="8195" width="7" customWidth="1"/>
+    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8197" max="8197" width="21" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.25" customWidth="1"/>
+    <col min="8200" max="8200" width="25.75" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8204" max="8204" width="9" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="17.75" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8451" max="8451" width="7" customWidth="1"/>
+    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8453" max="8453" width="21" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.25" customWidth="1"/>
+    <col min="8456" max="8456" width="25.75" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8460" max="8460" width="9" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="17.75" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8707" max="8707" width="7" customWidth="1"/>
+    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8709" max="8709" width="21" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.25" customWidth="1"/>
+    <col min="8712" max="8712" width="25.75" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8716" max="8716" width="9" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="17.75" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8963" max="8963" width="7" customWidth="1"/>
+    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8965" max="8965" width="21" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.25" customWidth="1"/>
+    <col min="8968" max="8968" width="25.75" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8972" max="8972" width="9" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="17.75" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="9219" max="9219" width="7" customWidth="1"/>
+    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9221" max="9221" width="21" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.25" customWidth="1"/>
+    <col min="9224" max="9224" width="25.75" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9228" max="9228" width="9" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="17.75" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9475" max="9475" width="7" customWidth="1"/>
+    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9477" max="9477" width="21" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.25" customWidth="1"/>
+    <col min="9480" max="9480" width="25.75" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9484" max="9484" width="9" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="17.75" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9731" max="9731" width="7" customWidth="1"/>
+    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9733" max="9733" width="21" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.25" customWidth="1"/>
+    <col min="9736" max="9736" width="25.75" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9740" max="9740" width="9" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="17.75" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9987" max="9987" width="7" customWidth="1"/>
+    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9989" max="9989" width="21" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.25" customWidth="1"/>
+    <col min="9992" max="9992" width="25.75" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9996" max="9996" width="9" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="17.75" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="10243" max="10243" width="7" customWidth="1"/>
+    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10245" max="10245" width="21" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.25" customWidth="1"/>
+    <col min="10248" max="10248" width="25.75" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10252" max="10252" width="9" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="17.75" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10499" max="10499" width="7" customWidth="1"/>
+    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10501" max="10501" width="21" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.25" customWidth="1"/>
+    <col min="10504" max="10504" width="25.75" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10508" max="10508" width="9" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="17.75" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10755" max="10755" width="7" customWidth="1"/>
+    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10757" max="10757" width="21" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.25" customWidth="1"/>
+    <col min="10760" max="10760" width="25.75" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10764" max="10764" width="9" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="17.75" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="11011" max="11011" width="7" customWidth="1"/>
+    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11013" max="11013" width="21" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.25" customWidth="1"/>
+    <col min="11016" max="11016" width="25.75" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11020" max="11020" width="9" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="17.75" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11267" max="11267" width="7" customWidth="1"/>
+    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11269" max="11269" width="21" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.25" customWidth="1"/>
+    <col min="11272" max="11272" width="25.75" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11276" max="11276" width="9" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="17.75" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11523" max="11523" width="7" customWidth="1"/>
+    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11525" max="11525" width="21" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.25" customWidth="1"/>
+    <col min="11528" max="11528" width="25.75" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11532" max="11532" width="9" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="17.75" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11779" max="11779" width="7" customWidth="1"/>
+    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11781" max="11781" width="21" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.25" customWidth="1"/>
+    <col min="11784" max="11784" width="25.75" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11788" max="11788" width="9" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="17.75" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="12035" max="12035" width="7" customWidth="1"/>
+    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12037" max="12037" width="21" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.25" customWidth="1"/>
+    <col min="12040" max="12040" width="25.75" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12044" max="12044" width="9" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="17.75" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12291" max="12291" width="7" customWidth="1"/>
+    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12293" max="12293" width="21" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.25" customWidth="1"/>
+    <col min="12296" max="12296" width="25.75" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12300" max="12300" width="9" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="17.75" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12547" max="12547" width="7" customWidth="1"/>
+    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12549" max="12549" width="21" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.25" customWidth="1"/>
+    <col min="12552" max="12552" width="25.75" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12556" max="12556" width="9" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="17.75" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12803" max="12803" width="7" customWidth="1"/>
+    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12805" max="12805" width="21" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.25" customWidth="1"/>
+    <col min="12808" max="12808" width="25.75" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12812" max="12812" width="9" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="17.75" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="13059" max="13059" width="7" customWidth="1"/>
+    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13061" max="13061" width="21" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.25" customWidth="1"/>
+    <col min="13064" max="13064" width="25.75" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13068" max="13068" width="9" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="17.75" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13315" max="13315" width="7" customWidth="1"/>
+    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13317" max="13317" width="21" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.25" customWidth="1"/>
+    <col min="13320" max="13320" width="25.75" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13324" max="13324" width="9" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="17.75" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13571" max="13571" width="7" customWidth="1"/>
+    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13573" max="13573" width="21" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.25" customWidth="1"/>
+    <col min="13576" max="13576" width="25.75" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13580" max="13580" width="9" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="17.75" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13827" max="13827" width="7" customWidth="1"/>
+    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13829" max="13829" width="21" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.25" customWidth="1"/>
+    <col min="13832" max="13832" width="25.75" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13836" max="13836" width="9" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="17.75" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="14083" max="14083" width="7" customWidth="1"/>
+    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14085" max="14085" width="21" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.25" customWidth="1"/>
+    <col min="14088" max="14088" width="25.75" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14092" max="14092" width="9" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="17.75" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14339" max="14339" width="7" customWidth="1"/>
+    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14341" max="14341" width="21" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.25" customWidth="1"/>
+    <col min="14344" max="14344" width="25.75" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14348" max="14348" width="9" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="17.75" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14595" max="14595" width="7" customWidth="1"/>
+    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14597" max="14597" width="21" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.25" customWidth="1"/>
+    <col min="14600" max="14600" width="25.75" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14604" max="14604" width="9" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="17.75" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14851" max="14851" width="7" customWidth="1"/>
+    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14853" max="14853" width="21" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.25" customWidth="1"/>
+    <col min="14856" max="14856" width="25.75" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14860" max="14860" width="9" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="17.75" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="15107" max="15107" width="7" customWidth="1"/>
+    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15109" max="15109" width="21" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.25" customWidth="1"/>
+    <col min="15112" max="15112" width="25.75" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15116" max="15116" width="9" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="17.75" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15363" max="15363" width="7" customWidth="1"/>
+    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15365" max="15365" width="21" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.25" customWidth="1"/>
+    <col min="15368" max="15368" width="25.75" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15372" max="15372" width="9" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="17.75" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15619" max="15619" width="7" customWidth="1"/>
+    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15621" max="15621" width="21" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.25" customWidth="1"/>
+    <col min="15624" max="15624" width="25.75" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15628" max="15628" width="9" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="17.75" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15875" max="15875" width="7" customWidth="1"/>
+    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15877" max="15877" width="21" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.25" customWidth="1"/>
+    <col min="15880" max="15880" width="25.75" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15884" max="15884" width="9" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="17.75" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="16131" max="16131" width="7" customWidth="1"/>
+    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16133" max="16133" width="21" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.25" customWidth="1"/>
+    <col min="16136" max="16136" width="25.75" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16140" max="16140" width="9" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="36" customFormat="1" ht="165" x14ac:dyDescent="0.15">
+      <c r="A4" s="37">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" s="36" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="37">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" ht="396" x14ac:dyDescent="0.15">
+      <c r="A6" s="37">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="36" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="37">
+        <v>4</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="36" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="37">
+        <v>5</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" s="36" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="37">
+        <v>6</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="36" customFormat="1" ht="297" x14ac:dyDescent="0.15">
+      <c r="A10" s="37">
+        <v>7</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4:JB16 SX4:SX16 ACT4:ACT16 AMP4:AMP16 AWL4:AWL16 BGH4:BGH16 BQD4:BQD16 BZZ4:BZZ16 CJV4:CJV16 CTR4:CTR16 DDN4:DDN16 DNJ4:DNJ16 DXF4:DXF16 EHB4:EHB16 EQX4:EQX16 FAT4:FAT16 FKP4:FKP16 FUL4:FUL16 GEH4:GEH16 GOD4:GOD16 GXZ4:GXZ16 HHV4:HHV16 HRR4:HRR16 IBN4:IBN16 ILJ4:ILJ16 IVF4:IVF16 JFB4:JFB16 JOX4:JOX16 JYT4:JYT16 KIP4:KIP16 KSL4:KSL16 LCH4:LCH16 LMD4:LMD16 LVZ4:LVZ16 MFV4:MFV16 MPR4:MPR16 MZN4:MZN16 NJJ4:NJJ16 NTF4:NTF16 ODB4:ODB16 OMX4:OMX16 OWT4:OWT16 PGP4:PGP16 PQL4:PQL16 QAH4:QAH16 QKD4:QKD16 QTZ4:QTZ16 RDV4:RDV16 RNR4:RNR16 RXN4:RXN16 SHJ4:SHJ16 SRF4:SRF16 TBB4:TBB16 TKX4:TKX16 TUT4:TUT16 UEP4:UEP16 UOL4:UOL16 UYH4:UYH16 VID4:VID16 VRZ4:VRZ16 WBV4:WBV16 WLR4:WLR16 WVN4:WVN16 F65540:F65552 JB65540:JB65552 SX65540:SX65552 ACT65540:ACT65552 AMP65540:AMP65552 AWL65540:AWL65552 BGH65540:BGH65552 BQD65540:BQD65552 BZZ65540:BZZ65552 CJV65540:CJV65552 CTR65540:CTR65552 DDN65540:DDN65552 DNJ65540:DNJ65552 DXF65540:DXF65552 EHB65540:EHB65552 EQX65540:EQX65552 FAT65540:FAT65552 FKP65540:FKP65552 FUL65540:FUL65552 GEH65540:GEH65552 GOD65540:GOD65552 GXZ65540:GXZ65552 HHV65540:HHV65552 HRR65540:HRR65552 IBN65540:IBN65552 ILJ65540:ILJ65552 IVF65540:IVF65552 JFB65540:JFB65552 JOX65540:JOX65552 JYT65540:JYT65552 KIP65540:KIP65552 KSL65540:KSL65552 LCH65540:LCH65552 LMD65540:LMD65552 LVZ65540:LVZ65552 MFV65540:MFV65552 MPR65540:MPR65552 MZN65540:MZN65552 NJJ65540:NJJ65552 NTF65540:NTF65552 ODB65540:ODB65552 OMX65540:OMX65552 OWT65540:OWT65552 PGP65540:PGP65552 PQL65540:PQL65552 QAH65540:QAH65552 QKD65540:QKD65552 QTZ65540:QTZ65552 RDV65540:RDV65552 RNR65540:RNR65552 RXN65540:RXN65552 SHJ65540:SHJ65552 SRF65540:SRF65552 TBB65540:TBB65552 TKX65540:TKX65552 TUT65540:TUT65552 UEP65540:UEP65552 UOL65540:UOL65552 UYH65540:UYH65552 VID65540:VID65552 VRZ65540:VRZ65552 WBV65540:WBV65552 WLR65540:WLR65552 WVN65540:WVN65552 F131076:F131088 JB131076:JB131088 SX131076:SX131088 ACT131076:ACT131088 AMP131076:AMP131088 AWL131076:AWL131088 BGH131076:BGH131088 BQD131076:BQD131088 BZZ131076:BZZ131088 CJV131076:CJV131088 CTR131076:CTR131088 DDN131076:DDN131088 DNJ131076:DNJ131088 DXF131076:DXF131088 EHB131076:EHB131088 EQX131076:EQX131088 FAT131076:FAT131088 FKP131076:FKP131088 FUL131076:FUL131088 GEH131076:GEH131088 GOD131076:GOD131088 GXZ131076:GXZ131088 HHV131076:HHV131088 HRR131076:HRR131088 IBN131076:IBN131088 ILJ131076:ILJ131088 IVF131076:IVF131088 JFB131076:JFB131088 JOX131076:JOX131088 JYT131076:JYT131088 KIP131076:KIP131088 KSL131076:KSL131088 LCH131076:LCH131088 LMD131076:LMD131088 LVZ131076:LVZ131088 MFV131076:MFV131088 MPR131076:MPR131088 MZN131076:MZN131088 NJJ131076:NJJ131088 NTF131076:NTF131088 ODB131076:ODB131088 OMX131076:OMX131088 OWT131076:OWT131088 PGP131076:PGP131088 PQL131076:PQL131088 QAH131076:QAH131088 QKD131076:QKD131088 QTZ131076:QTZ131088 RDV131076:RDV131088 RNR131076:RNR131088 RXN131076:RXN131088 SHJ131076:SHJ131088 SRF131076:SRF131088 TBB131076:TBB131088 TKX131076:TKX131088 TUT131076:TUT131088 UEP131076:UEP131088 UOL131076:UOL131088 UYH131076:UYH131088 VID131076:VID131088 VRZ131076:VRZ131088 WBV131076:WBV131088 WLR131076:WLR131088 WVN131076:WVN131088 F196612:F196624 JB196612:JB196624 SX196612:SX196624 ACT196612:ACT196624 AMP196612:AMP196624 AWL196612:AWL196624 BGH196612:BGH196624 BQD196612:BQD196624 BZZ196612:BZZ196624 CJV196612:CJV196624 CTR196612:CTR196624 DDN196612:DDN196624 DNJ196612:DNJ196624 DXF196612:DXF196624 EHB196612:EHB196624 EQX196612:EQX196624 FAT196612:FAT196624 FKP196612:FKP196624 FUL196612:FUL196624 GEH196612:GEH196624 GOD196612:GOD196624 GXZ196612:GXZ196624 HHV196612:HHV196624 HRR196612:HRR196624 IBN196612:IBN196624 ILJ196612:ILJ196624 IVF196612:IVF196624 JFB196612:JFB196624 JOX196612:JOX196624 JYT196612:JYT196624 KIP196612:KIP196624 KSL196612:KSL196624 LCH196612:LCH196624 LMD196612:LMD196624 LVZ196612:LVZ196624 MFV196612:MFV196624 MPR196612:MPR196624 MZN196612:MZN196624 NJJ196612:NJJ196624 NTF196612:NTF196624 ODB196612:ODB196624 OMX196612:OMX196624 OWT196612:OWT196624 PGP196612:PGP196624 PQL196612:PQL196624 QAH196612:QAH196624 QKD196612:QKD196624 QTZ196612:QTZ196624 RDV196612:RDV196624 RNR196612:RNR196624 RXN196612:RXN196624 SHJ196612:SHJ196624 SRF196612:SRF196624 TBB196612:TBB196624 TKX196612:TKX196624 TUT196612:TUT196624 UEP196612:UEP196624 UOL196612:UOL196624 UYH196612:UYH196624 VID196612:VID196624 VRZ196612:VRZ196624 WBV196612:WBV196624 WLR196612:WLR196624 WVN196612:WVN196624 F262148:F262160 JB262148:JB262160 SX262148:SX262160 ACT262148:ACT262160 AMP262148:AMP262160 AWL262148:AWL262160 BGH262148:BGH262160 BQD262148:BQD262160 BZZ262148:BZZ262160 CJV262148:CJV262160 CTR262148:CTR262160 DDN262148:DDN262160 DNJ262148:DNJ262160 DXF262148:DXF262160 EHB262148:EHB262160 EQX262148:EQX262160 FAT262148:FAT262160 FKP262148:FKP262160 FUL262148:FUL262160 GEH262148:GEH262160 GOD262148:GOD262160 GXZ262148:GXZ262160 HHV262148:HHV262160 HRR262148:HRR262160 IBN262148:IBN262160 ILJ262148:ILJ262160 IVF262148:IVF262160 JFB262148:JFB262160 JOX262148:JOX262160 JYT262148:JYT262160 KIP262148:KIP262160 KSL262148:KSL262160 LCH262148:LCH262160 LMD262148:LMD262160 LVZ262148:LVZ262160 MFV262148:MFV262160 MPR262148:MPR262160 MZN262148:MZN262160 NJJ262148:NJJ262160 NTF262148:NTF262160 ODB262148:ODB262160 OMX262148:OMX262160 OWT262148:OWT262160 PGP262148:PGP262160 PQL262148:PQL262160 QAH262148:QAH262160 QKD262148:QKD262160 QTZ262148:QTZ262160 RDV262148:RDV262160 RNR262148:RNR262160 RXN262148:RXN262160 SHJ262148:SHJ262160 SRF262148:SRF262160 TBB262148:TBB262160 TKX262148:TKX262160 TUT262148:TUT262160 UEP262148:UEP262160 UOL262148:UOL262160 UYH262148:UYH262160 VID262148:VID262160 VRZ262148:VRZ262160 WBV262148:WBV262160 WLR262148:WLR262160 WVN262148:WVN262160 F327684:F327696 JB327684:JB327696 SX327684:SX327696 ACT327684:ACT327696 AMP327684:AMP327696 AWL327684:AWL327696 BGH327684:BGH327696 BQD327684:BQD327696 BZZ327684:BZZ327696 CJV327684:CJV327696 CTR327684:CTR327696 DDN327684:DDN327696 DNJ327684:DNJ327696 DXF327684:DXF327696 EHB327684:EHB327696 EQX327684:EQX327696 FAT327684:FAT327696 FKP327684:FKP327696 FUL327684:FUL327696 GEH327684:GEH327696 GOD327684:GOD327696 GXZ327684:GXZ327696 HHV327684:HHV327696 HRR327684:HRR327696 IBN327684:IBN327696 ILJ327684:ILJ327696 IVF327684:IVF327696 JFB327684:JFB327696 JOX327684:JOX327696 JYT327684:JYT327696 KIP327684:KIP327696 KSL327684:KSL327696 LCH327684:LCH327696 LMD327684:LMD327696 LVZ327684:LVZ327696 MFV327684:MFV327696 MPR327684:MPR327696 MZN327684:MZN327696 NJJ327684:NJJ327696 NTF327684:NTF327696 ODB327684:ODB327696 OMX327684:OMX327696 OWT327684:OWT327696 PGP327684:PGP327696 PQL327684:PQL327696 QAH327684:QAH327696 QKD327684:QKD327696 QTZ327684:QTZ327696 RDV327684:RDV327696 RNR327684:RNR327696 RXN327684:RXN327696 SHJ327684:SHJ327696 SRF327684:SRF327696 TBB327684:TBB327696 TKX327684:TKX327696 TUT327684:TUT327696 UEP327684:UEP327696 UOL327684:UOL327696 UYH327684:UYH327696 VID327684:VID327696 VRZ327684:VRZ327696 WBV327684:WBV327696 WLR327684:WLR327696 WVN327684:WVN327696 F393220:F393232 JB393220:JB393232 SX393220:SX393232 ACT393220:ACT393232 AMP393220:AMP393232 AWL393220:AWL393232 BGH393220:BGH393232 BQD393220:BQD393232 BZZ393220:BZZ393232 CJV393220:CJV393232 CTR393220:CTR393232 DDN393220:DDN393232 DNJ393220:DNJ393232 DXF393220:DXF393232 EHB393220:EHB393232 EQX393220:EQX393232 FAT393220:FAT393232 FKP393220:FKP393232 FUL393220:FUL393232 GEH393220:GEH393232 GOD393220:GOD393232 GXZ393220:GXZ393232 HHV393220:HHV393232 HRR393220:HRR393232 IBN393220:IBN393232 ILJ393220:ILJ393232 IVF393220:IVF393232 JFB393220:JFB393232 JOX393220:JOX393232 JYT393220:JYT393232 KIP393220:KIP393232 KSL393220:KSL393232 LCH393220:LCH393232 LMD393220:LMD393232 LVZ393220:LVZ393232 MFV393220:MFV393232 MPR393220:MPR393232 MZN393220:MZN393232 NJJ393220:NJJ393232 NTF393220:NTF393232 ODB393220:ODB393232 OMX393220:OMX393232 OWT393220:OWT393232 PGP393220:PGP393232 PQL393220:PQL393232 QAH393220:QAH393232 QKD393220:QKD393232 QTZ393220:QTZ393232 RDV393220:RDV393232 RNR393220:RNR393232 RXN393220:RXN393232 SHJ393220:SHJ393232 SRF393220:SRF393232 TBB393220:TBB393232 TKX393220:TKX393232 TUT393220:TUT393232 UEP393220:UEP393232 UOL393220:UOL393232 UYH393220:UYH393232 VID393220:VID393232 VRZ393220:VRZ393232 WBV393220:WBV393232 WLR393220:WLR393232 WVN393220:WVN393232 F458756:F458768 JB458756:JB458768 SX458756:SX458768 ACT458756:ACT458768 AMP458756:AMP458768 AWL458756:AWL458768 BGH458756:BGH458768 BQD458756:BQD458768 BZZ458756:BZZ458768 CJV458756:CJV458768 CTR458756:CTR458768 DDN458756:DDN458768 DNJ458756:DNJ458768 DXF458756:DXF458768 EHB458756:EHB458768 EQX458756:EQX458768 FAT458756:FAT458768 FKP458756:FKP458768 FUL458756:FUL458768 GEH458756:GEH458768 GOD458756:GOD458768 GXZ458756:GXZ458768 HHV458756:HHV458768 HRR458756:HRR458768 IBN458756:IBN458768 ILJ458756:ILJ458768 IVF458756:IVF458768 JFB458756:JFB458768 JOX458756:JOX458768 JYT458756:JYT458768 KIP458756:KIP458768 KSL458756:KSL458768 LCH458756:LCH458768 LMD458756:LMD458768 LVZ458756:LVZ458768 MFV458756:MFV458768 MPR458756:MPR458768 MZN458756:MZN458768 NJJ458756:NJJ458768 NTF458756:NTF458768 ODB458756:ODB458768 OMX458756:OMX458768 OWT458756:OWT458768 PGP458756:PGP458768 PQL458756:PQL458768 QAH458756:QAH458768 QKD458756:QKD458768 QTZ458756:QTZ458768 RDV458756:RDV458768 RNR458756:RNR458768 RXN458756:RXN458768 SHJ458756:SHJ458768 SRF458756:SRF458768 TBB458756:TBB458768 TKX458756:TKX458768 TUT458756:TUT458768 UEP458756:UEP458768 UOL458756:UOL458768 UYH458756:UYH458768 VID458756:VID458768 VRZ458756:VRZ458768 WBV458756:WBV458768 WLR458756:WLR458768 WVN458756:WVN458768 F524292:F524304 JB524292:JB524304 SX524292:SX524304 ACT524292:ACT524304 AMP524292:AMP524304 AWL524292:AWL524304 BGH524292:BGH524304 BQD524292:BQD524304 BZZ524292:BZZ524304 CJV524292:CJV524304 CTR524292:CTR524304 DDN524292:DDN524304 DNJ524292:DNJ524304 DXF524292:DXF524304 EHB524292:EHB524304 EQX524292:EQX524304 FAT524292:FAT524304 FKP524292:FKP524304 FUL524292:FUL524304 GEH524292:GEH524304 GOD524292:GOD524304 GXZ524292:GXZ524304 HHV524292:HHV524304 HRR524292:HRR524304 IBN524292:IBN524304 ILJ524292:ILJ524304 IVF524292:IVF524304 JFB524292:JFB524304 JOX524292:JOX524304 JYT524292:JYT524304 KIP524292:KIP524304 KSL524292:KSL524304 LCH524292:LCH524304 LMD524292:LMD524304 LVZ524292:LVZ524304 MFV524292:MFV524304 MPR524292:MPR524304 MZN524292:MZN524304 NJJ524292:NJJ524304 NTF524292:NTF524304 ODB524292:ODB524304 OMX524292:OMX524304 OWT524292:OWT524304 PGP524292:PGP524304 PQL524292:PQL524304 QAH524292:QAH524304 QKD524292:QKD524304 QTZ524292:QTZ524304 RDV524292:RDV524304 RNR524292:RNR524304 RXN524292:RXN524304 SHJ524292:SHJ524304 SRF524292:SRF524304 TBB524292:TBB524304 TKX524292:TKX524304 TUT524292:TUT524304 UEP524292:UEP524304 UOL524292:UOL524304 UYH524292:UYH524304 VID524292:VID524304 VRZ524292:VRZ524304 WBV524292:WBV524304 WLR524292:WLR524304 WVN524292:WVN524304 F589828:F589840 JB589828:JB589840 SX589828:SX589840 ACT589828:ACT589840 AMP589828:AMP589840 AWL589828:AWL589840 BGH589828:BGH589840 BQD589828:BQD589840 BZZ589828:BZZ589840 CJV589828:CJV589840 CTR589828:CTR589840 DDN589828:DDN589840 DNJ589828:DNJ589840 DXF589828:DXF589840 EHB589828:EHB589840 EQX589828:EQX589840 FAT589828:FAT589840 FKP589828:FKP589840 FUL589828:FUL589840 GEH589828:GEH589840 GOD589828:GOD589840 GXZ589828:GXZ589840 HHV589828:HHV589840 HRR589828:HRR589840 IBN589828:IBN589840 ILJ589828:ILJ589840 IVF589828:IVF589840 JFB589828:JFB589840 JOX589828:JOX589840 JYT589828:JYT589840 KIP589828:KIP589840 KSL589828:KSL589840 LCH589828:LCH589840 LMD589828:LMD589840 LVZ589828:LVZ589840 MFV589828:MFV589840 MPR589828:MPR589840 MZN589828:MZN589840 NJJ589828:NJJ589840 NTF589828:NTF589840 ODB589828:ODB589840 OMX589828:OMX589840 OWT589828:OWT589840 PGP589828:PGP589840 PQL589828:PQL589840 QAH589828:QAH589840 QKD589828:QKD589840 QTZ589828:QTZ589840 RDV589828:RDV589840 RNR589828:RNR589840 RXN589828:RXN589840 SHJ589828:SHJ589840 SRF589828:SRF589840 TBB589828:TBB589840 TKX589828:TKX589840 TUT589828:TUT589840 UEP589828:UEP589840 UOL589828:UOL589840 UYH589828:UYH589840 VID589828:VID589840 VRZ589828:VRZ589840 WBV589828:WBV589840 WLR589828:WLR589840 WVN589828:WVN589840 F655364:F655376 JB655364:JB655376 SX655364:SX655376 ACT655364:ACT655376 AMP655364:AMP655376 AWL655364:AWL655376 BGH655364:BGH655376 BQD655364:BQD655376 BZZ655364:BZZ655376 CJV655364:CJV655376 CTR655364:CTR655376 DDN655364:DDN655376 DNJ655364:DNJ655376 DXF655364:DXF655376 EHB655364:EHB655376 EQX655364:EQX655376 FAT655364:FAT655376 FKP655364:FKP655376 FUL655364:FUL655376 GEH655364:GEH655376 GOD655364:GOD655376 GXZ655364:GXZ655376 HHV655364:HHV655376 HRR655364:HRR655376 IBN655364:IBN655376 ILJ655364:ILJ655376 IVF655364:IVF655376 JFB655364:JFB655376 JOX655364:JOX655376 JYT655364:JYT655376 KIP655364:KIP655376 KSL655364:KSL655376 LCH655364:LCH655376 LMD655364:LMD655376 LVZ655364:LVZ655376 MFV655364:MFV655376 MPR655364:MPR655376 MZN655364:MZN655376 NJJ655364:NJJ655376 NTF655364:NTF655376 ODB655364:ODB655376 OMX655364:OMX655376 OWT655364:OWT655376 PGP655364:PGP655376 PQL655364:PQL655376 QAH655364:QAH655376 QKD655364:QKD655376 QTZ655364:QTZ655376 RDV655364:RDV655376 RNR655364:RNR655376 RXN655364:RXN655376 SHJ655364:SHJ655376 SRF655364:SRF655376 TBB655364:TBB655376 TKX655364:TKX655376 TUT655364:TUT655376 UEP655364:UEP655376 UOL655364:UOL655376 UYH655364:UYH655376 VID655364:VID655376 VRZ655364:VRZ655376 WBV655364:WBV655376 WLR655364:WLR655376 WVN655364:WVN655376 F720900:F720912 JB720900:JB720912 SX720900:SX720912 ACT720900:ACT720912 AMP720900:AMP720912 AWL720900:AWL720912 BGH720900:BGH720912 BQD720900:BQD720912 BZZ720900:BZZ720912 CJV720900:CJV720912 CTR720900:CTR720912 DDN720900:DDN720912 DNJ720900:DNJ720912 DXF720900:DXF720912 EHB720900:EHB720912 EQX720900:EQX720912 FAT720900:FAT720912 FKP720900:FKP720912 FUL720900:FUL720912 GEH720900:GEH720912 GOD720900:GOD720912 GXZ720900:GXZ720912 HHV720900:HHV720912 HRR720900:HRR720912 IBN720900:IBN720912 ILJ720900:ILJ720912 IVF720900:IVF720912 JFB720900:JFB720912 JOX720900:JOX720912 JYT720900:JYT720912 KIP720900:KIP720912 KSL720900:KSL720912 LCH720900:LCH720912 LMD720900:LMD720912 LVZ720900:LVZ720912 MFV720900:MFV720912 MPR720900:MPR720912 MZN720900:MZN720912 NJJ720900:NJJ720912 NTF720900:NTF720912 ODB720900:ODB720912 OMX720900:OMX720912 OWT720900:OWT720912 PGP720900:PGP720912 PQL720900:PQL720912 QAH720900:QAH720912 QKD720900:QKD720912 QTZ720900:QTZ720912 RDV720900:RDV720912 RNR720900:RNR720912 RXN720900:RXN720912 SHJ720900:SHJ720912 SRF720900:SRF720912 TBB720900:TBB720912 TKX720900:TKX720912 TUT720900:TUT720912 UEP720900:UEP720912 UOL720900:UOL720912 UYH720900:UYH720912 VID720900:VID720912 VRZ720900:VRZ720912 WBV720900:WBV720912 WLR720900:WLR720912 WVN720900:WVN720912 F786436:F786448 JB786436:JB786448 SX786436:SX786448 ACT786436:ACT786448 AMP786436:AMP786448 AWL786436:AWL786448 BGH786436:BGH786448 BQD786436:BQD786448 BZZ786436:BZZ786448 CJV786436:CJV786448 CTR786436:CTR786448 DDN786436:DDN786448 DNJ786436:DNJ786448 DXF786436:DXF786448 EHB786436:EHB786448 EQX786436:EQX786448 FAT786436:FAT786448 FKP786436:FKP786448 FUL786436:FUL786448 GEH786436:GEH786448 GOD786436:GOD786448 GXZ786436:GXZ786448 HHV786436:HHV786448 HRR786436:HRR786448 IBN786436:IBN786448 ILJ786436:ILJ786448 IVF786436:IVF786448 JFB786436:JFB786448 JOX786436:JOX786448 JYT786436:JYT786448 KIP786436:KIP786448 KSL786436:KSL786448 LCH786436:LCH786448 LMD786436:LMD786448 LVZ786436:LVZ786448 MFV786436:MFV786448 MPR786436:MPR786448 MZN786436:MZN786448 NJJ786436:NJJ786448 NTF786436:NTF786448 ODB786436:ODB786448 OMX786436:OMX786448 OWT786436:OWT786448 PGP786436:PGP786448 PQL786436:PQL786448 QAH786436:QAH786448 QKD786436:QKD786448 QTZ786436:QTZ786448 RDV786436:RDV786448 RNR786436:RNR786448 RXN786436:RXN786448 SHJ786436:SHJ786448 SRF786436:SRF786448 TBB786436:TBB786448 TKX786436:TKX786448 TUT786436:TUT786448 UEP786436:UEP786448 UOL786436:UOL786448 UYH786436:UYH786448 VID786436:VID786448 VRZ786436:VRZ786448 WBV786436:WBV786448 WLR786436:WLR786448 WVN786436:WVN786448 F851972:F851984 JB851972:JB851984 SX851972:SX851984 ACT851972:ACT851984 AMP851972:AMP851984 AWL851972:AWL851984 BGH851972:BGH851984 BQD851972:BQD851984 BZZ851972:BZZ851984 CJV851972:CJV851984 CTR851972:CTR851984 DDN851972:DDN851984 DNJ851972:DNJ851984 DXF851972:DXF851984 EHB851972:EHB851984 EQX851972:EQX851984 FAT851972:FAT851984 FKP851972:FKP851984 FUL851972:FUL851984 GEH851972:GEH851984 GOD851972:GOD851984 GXZ851972:GXZ851984 HHV851972:HHV851984 HRR851972:HRR851984 IBN851972:IBN851984 ILJ851972:ILJ851984 IVF851972:IVF851984 JFB851972:JFB851984 JOX851972:JOX851984 JYT851972:JYT851984 KIP851972:KIP851984 KSL851972:KSL851984 LCH851972:LCH851984 LMD851972:LMD851984 LVZ851972:LVZ851984 MFV851972:MFV851984 MPR851972:MPR851984 MZN851972:MZN851984 NJJ851972:NJJ851984 NTF851972:NTF851984 ODB851972:ODB851984 OMX851972:OMX851984 OWT851972:OWT851984 PGP851972:PGP851984 PQL851972:PQL851984 QAH851972:QAH851984 QKD851972:QKD851984 QTZ851972:QTZ851984 RDV851972:RDV851984 RNR851972:RNR851984 RXN851972:RXN851984 SHJ851972:SHJ851984 SRF851972:SRF851984 TBB851972:TBB851984 TKX851972:TKX851984 TUT851972:TUT851984 UEP851972:UEP851984 UOL851972:UOL851984 UYH851972:UYH851984 VID851972:VID851984 VRZ851972:VRZ851984 WBV851972:WBV851984 WLR851972:WLR851984 WVN851972:WVN851984 F917508:F917520 JB917508:JB917520 SX917508:SX917520 ACT917508:ACT917520 AMP917508:AMP917520 AWL917508:AWL917520 BGH917508:BGH917520 BQD917508:BQD917520 BZZ917508:BZZ917520 CJV917508:CJV917520 CTR917508:CTR917520 DDN917508:DDN917520 DNJ917508:DNJ917520 DXF917508:DXF917520 EHB917508:EHB917520 EQX917508:EQX917520 FAT917508:FAT917520 FKP917508:FKP917520 FUL917508:FUL917520 GEH917508:GEH917520 GOD917508:GOD917520 GXZ917508:GXZ917520 HHV917508:HHV917520 HRR917508:HRR917520 IBN917508:IBN917520 ILJ917508:ILJ917520 IVF917508:IVF917520 JFB917508:JFB917520 JOX917508:JOX917520 JYT917508:JYT917520 KIP917508:KIP917520 KSL917508:KSL917520 LCH917508:LCH917520 LMD917508:LMD917520 LVZ917508:LVZ917520 MFV917508:MFV917520 MPR917508:MPR917520 MZN917508:MZN917520 NJJ917508:NJJ917520 NTF917508:NTF917520 ODB917508:ODB917520 OMX917508:OMX917520 OWT917508:OWT917520 PGP917508:PGP917520 PQL917508:PQL917520 QAH917508:QAH917520 QKD917508:QKD917520 QTZ917508:QTZ917520 RDV917508:RDV917520 RNR917508:RNR917520 RXN917508:RXN917520 SHJ917508:SHJ917520 SRF917508:SRF917520 TBB917508:TBB917520 TKX917508:TKX917520 TUT917508:TUT917520 UEP917508:UEP917520 UOL917508:UOL917520 UYH917508:UYH917520 VID917508:VID917520 VRZ917508:VRZ917520 WBV917508:WBV917520 WLR917508:WLR917520 WVN917508:WVN917520 F983044:F983056 JB983044:JB983056 SX983044:SX983056 ACT983044:ACT983056 AMP983044:AMP983056 AWL983044:AWL983056 BGH983044:BGH983056 BQD983044:BQD983056 BZZ983044:BZZ983056 CJV983044:CJV983056 CTR983044:CTR983056 DDN983044:DDN983056 DNJ983044:DNJ983056 DXF983044:DXF983056 EHB983044:EHB983056 EQX983044:EQX983056 FAT983044:FAT983056 FKP983044:FKP983056 FUL983044:FUL983056 GEH983044:GEH983056 GOD983044:GOD983056 GXZ983044:GXZ983056 HHV983044:HHV983056 HRR983044:HRR983056 IBN983044:IBN983056 ILJ983044:ILJ983056 IVF983044:IVF983056 JFB983044:JFB983056 JOX983044:JOX983056 JYT983044:JYT983056 KIP983044:KIP983056 KSL983044:KSL983056 LCH983044:LCH983056 LMD983044:LMD983056 LVZ983044:LVZ983056 MFV983044:MFV983056 MPR983044:MPR983056 MZN983044:MZN983056 NJJ983044:NJJ983056 NTF983044:NTF983056 ODB983044:ODB983056 OMX983044:OMX983056 OWT983044:OWT983056 PGP983044:PGP983056 PQL983044:PQL983056 QAH983044:QAH983056 QKD983044:QKD983056 QTZ983044:QTZ983056 RDV983044:RDV983056 RNR983044:RNR983056 RXN983044:RXN983056 SHJ983044:SHJ983056 SRF983044:SRF983056 TBB983044:TBB983056 TKX983044:TKX983056 TUT983044:TUT983056 UEP983044:UEP983056 UOL983044:UOL983056 UYH983044:UYH983056 VID983044:VID983056 VRZ983044:VRZ983056 WBV983044:WBV983056 WLR983044:WLR983056 WVN983044:WVN983056">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="202">
   <si>
     <t>No</t>
   </si>
@@ -133,10 +133,6 @@
   </si>
   <si>
     <t>吕崇新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -424,10 +420,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>租客支付密码重置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -760,86 +752,143 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>租客PC，租客App</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>纪林强</t>
+  </si>
+  <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>租客PC</t>
+  </si>
+  <si>
+    <t>李健</t>
+  </si>
+  <si>
+    <t>BS后台</t>
+  </si>
+  <si>
+    <t>姚海强</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t>姚海强田东兴</t>
+  </si>
+  <si>
+    <t>租客支付密码重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS后台】房间列表已出租/未出租功能恢复（文案修改出租状态）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东App】已租隐藏房间提示：已租的房源不会对外展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】编辑集中式房源默认不选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>【租客PC&amp;App】修复租客注册时，统计租客注册来源渠道bug</t>
-  </si>
-  <si>
-    <t>Fix Bugs</t>
-  </si>
-  <si>
-    <t>租客PC，租客App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客PC】福利社页面更换公司联系人和联系方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展员数据double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>EQ组</t>
-  </si>
-  <si>
-    <t>纪林强</t>
-  </si>
-  <si>
-    <t>吴永余</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝数据列表添加城市列和查询条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-  </si>
-  <si>
-    <t>【租客PC】福利社页面更换公司联系人和联系方式</t>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>租客PC</t>
-  </si>
-  <si>
-    <t>李健</t>
-  </si>
-  <si>
-    <t>【BS后台】房间列表已出租/未出租功能恢复（文案修改出租状态）</t>
-  </si>
-  <si>
-    <t>BS后台</t>
-  </si>
-  <si>
-    <t>姚海强</t>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
-    <t>纪维玉</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>【房东App】已租隐藏房间提示：已租的房源不会对外展示</t>
-  </si>
-  <si>
-    <t>房东PC</t>
-  </si>
-  <si>
-    <t>【房东PC】编辑集中式房源默认不选</t>
-  </si>
-  <si>
-    <t>姚海强田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -952,13 +1001,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1134,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,12 +1273,6 @@
     <xf numFmtId="14" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1261,23 +1297,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1724,13 +1760,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>29</v>
@@ -1744,26 +1780,24 @@
       <c r="H2" s="13">
         <v>42513</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" s="13">
         <v>42522</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -1776,13 +1810,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>28</v>
@@ -1796,26 +1830,24 @@
       <c r="H3" s="13">
         <v>42513</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="13">
         <v>42522</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1828,13 +1860,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>28</v>
@@ -1848,26 +1880,24 @@
       <c r="H4" s="13">
         <v>42513</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="13">
         <v>42522</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1880,13 +1910,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>28</v>
@@ -1900,26 +1930,24 @@
       <c r="H5" s="13">
         <v>42513</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="N5" s="13">
         <v>42522</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1932,13 +1960,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>28</v>
@@ -1952,26 +1980,24 @@
       <c r="H6" s="13">
         <v>42513</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="13">
         <v>42522</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1984,13 +2010,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>28</v>
@@ -2004,26 +2030,24 @@
       <c r="H7" s="13">
         <v>42520</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="N7" s="13">
         <v>42522</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -2036,13 +2060,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
@@ -2056,26 +2080,24 @@
       <c r="H8" s="13">
         <v>42521</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="N8" s="13">
         <v>42522</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -2088,13 +2110,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>28</v>
@@ -2108,26 +2130,24 @@
       <c r="H9" s="13">
         <v>42521</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" s="13">
         <v>42522</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -2140,13 +2160,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>28</v>
@@ -2160,26 +2180,24 @@
       <c r="H10" s="13">
         <v>42521</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" s="13">
         <v>42522</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -2192,13 +2210,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>28</v>
@@ -2212,26 +2230,24 @@
       <c r="H11" s="13">
         <v>42521</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N11" s="13">
         <v>42522</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -2244,13 +2260,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>28</v>
@@ -2264,26 +2280,24 @@
       <c r="H12" s="13">
         <v>42521</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="13">
         <v>42522</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2296,13 +2310,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>28</v>
@@ -2316,17 +2330,15 @@
       <c r="H13" s="13">
         <v>42521</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M13" s="14" t="str">
         <f>M12:O12</f>
@@ -2336,7 +2348,7 @@
         <v>42522</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2349,13 +2361,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>28</v>
@@ -2369,26 +2381,24 @@
       <c r="H14" s="13">
         <v>42521</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="13">
         <v>42522</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2401,13 +2411,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>28</v>
@@ -2423,22 +2433,22 @@
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="M15" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="N15" s="13">
         <v>42522</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -2451,46 +2461,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="31">
         <v>42521</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="31">
         <v>42521</v>
       </c>
       <c r="I16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="K16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="L16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="N16" s="13">
         <v>42522</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
@@ -2503,44 +2513,44 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="31">
         <v>42521</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="31">
         <v>42521</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="M17" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="N17" s="13">
         <v>42522</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
@@ -2553,40 +2563,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="F18" s="13">
         <v>42521</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="12"/>
       <c r="J18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
@@ -2599,40 +2609,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="13">
         <v>42521</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="M19" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
@@ -2644,205 +2654,203 @@
       <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>176</v>
+      <c r="B20" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>172</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F20" s="13">
         <v>42521</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H20" s="13">
         <v>42521</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N20" s="13">
         <v>42156</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>176</v>
+      <c r="B21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>172</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F21" s="13">
         <v>42521</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H21" s="13">
         <v>42521</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N21" s="13">
         <v>42156</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>176</v>
+      <c r="B22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>172</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F22" s="13">
         <v>42521</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H22" s="13">
         <v>42521</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N22" s="13">
         <v>42156</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="F23" s="40">
+        <v>42522</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="40">
+        <v>42522</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="L23" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="44">
+      <c r="M23" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="40">
         <v>42522</v>
       </c>
-      <c r="G23" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="44">
-        <v>42522</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="14" t="s">
+      <c r="O23" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="N23" s="44">
-        <v>42522</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>174</v>
       </c>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
@@ -2850,51 +2858,49 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
         <v>23</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>175</v>
+      <c r="B24" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="40">
+        <v>42522</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="40">
+        <v>42522</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="44">
+      <c r="M24" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N24" s="40">
         <v>42522</v>
       </c>
-      <c r="G24" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="44">
-        <v>42522</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="N24" s="44">
-        <v>42522</v>
-      </c>
       <c r="O24" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -2902,47 +2908,95 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="13">
+        <v>42522</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="14"/>
+      <c r="J25" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="O25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="13">
+        <v>42521</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="14"/>
+      <c r="J26" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="O26" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
@@ -6811,17 +6865,17 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="7" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="40" customWidth="1"/>
-    <col min="5" max="5" width="21" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="82.25" style="40" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="7" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="38" customWidth="1"/>
+    <col min="5" max="5" width="21" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="82.25" style="38" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="39" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -7645,450 +7699,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-    </row>
-    <row r="3" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="H3" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="L3" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="34" t="s">
+    </row>
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="C4" s="35" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="36" customFormat="1" ht="165" x14ac:dyDescent="0.15">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="E4" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="F4" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="H4" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="I4" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="J4" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="K4" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="L4" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="35">
+        <v>2</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" s="36" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
-        <v>2</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="F5" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="H5" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="38" t="s">
+      <c r="I5" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="K5" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="37" t="s">
+      <c r="M5" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="37" t="s">
+    </row>
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="35">
+        <v>3</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" ht="396" x14ac:dyDescent="0.15">
-      <c r="A6" s="37">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="38" t="s">
+    </row>
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="35">
+        <v>4</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="35">
+        <v>6</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="37" t="s">
+      <c r="L9" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="36" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
-        <v>4</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="36" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="37">
-        <v>5</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="M8" s="39"/>
-    </row>
-    <row r="9" spans="1:13" s="36" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="37">
-        <v>6</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="38" t="s">
+      <c r="M9" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A10" s="35">
+        <v>7</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="C10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="36" customFormat="1" ht="297" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
-        <v>7</v>
-      </c>
-      <c r="B10" s="37" t="s">
+      <c r="E10" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="37" t="s">
+      <c r="F10" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="H10" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="I10" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="J10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="K10" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="L10" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="M10" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+    </row>
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
